--- a/Rol Tercero/Sumario.xlsx
+++ b/Rol Tercero/Sumario.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F9FD89-9071-4D3D-8332-6863079ABB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9542FD6-9595-4E93-8B8F-6354424277F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>N°</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Registra un cliente con todos los campos en blanco</t>
   </si>
   <si>
-    <t>Aprobado</t>
-  </si>
-  <si>
     <t>Reportado</t>
   </si>
   <si>
@@ -85,6 +82,18 @@
   </si>
   <si>
     <t>baja</t>
+  </si>
+  <si>
+    <t>CP_login</t>
+  </si>
+  <si>
+    <t>abierto</t>
+  </si>
+  <si>
+    <t>sebastian</t>
+  </si>
+  <si>
+    <t>aprovado</t>
   </si>
 </sst>
 </file>
@@ -371,18 +380,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -398,35 +431,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +720,7 @@
   <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:K5"/>
+      <selection activeCell="G8" sqref="G8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -725,156 +734,149 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="15"/>
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="J3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="22"/>
     </row>
     <row r="5" spans="2:11" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="20"/>
       <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="12"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="20"/>
       <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="20"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -888,6 +890,19 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Rol Tercero/Sumario.xlsx
+++ b/Rol Tercero/Sumario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9542FD6-9595-4E93-8B8F-6354424277F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B8568-1DD6-4A52-93C4-6AD327233572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>N°</t>
   </si>
@@ -39,15 +39,9 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>CP_002</t>
-  </si>
-  <si>
     <t>Registrar un cliente con todos los campos en blanco menos el telefono que</t>
   </si>
   <si>
-    <t>Prueba de validacion campos numericos en firstname</t>
-  </si>
-  <si>
     <t>CP_003</t>
   </si>
   <si>
@@ -66,9 +60,6 @@
     <t>Registra un cliente con todos los campos en blanco</t>
   </si>
   <si>
-    <t>Reportado</t>
-  </si>
-  <si>
     <t>Abierto</t>
   </si>
   <si>
@@ -78,9 +69,6 @@
     <t>Prioridad</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
     <t>baja</t>
   </si>
   <si>
@@ -94,6 +82,15 @@
   </si>
   <si>
     <t>aprovado</t>
+  </si>
+  <si>
+    <t>CP_lista_campos_registro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como se aprecia en la imagen X, la lista no trae informacion y al ser un campo obligatorio no puese realizar la accion </t>
+  </si>
+  <si>
+    <t>alta</t>
   </si>
 </sst>
 </file>
@@ -380,62 +377,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -720,7 +717,7 @@
   <dimension ref="B2:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:H8"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -734,149 +731,164 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="2:11" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20"/>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10"/>
       <c r="I5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="20"/>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12"/>
       <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="19" t="s">
+      <c r="C7" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20"/>
+      <c r="C8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="12"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="C9" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E3:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -890,19 +902,6 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Rol Tercero/Sumario.xlsx
+++ b/Rol Tercero/Sumario.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Prueba\Rol Tercero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\TestArgos\Rol Tercero\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B8568-1DD6-4A52-93C4-6AD327233572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0600DEE5-F9D9-434B-919E-4F81F6CD7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>N°</t>
   </si>
@@ -60,37 +69,55 @@
     <t>Registra un cliente con todos los campos en blanco</t>
   </si>
   <si>
-    <t>Abierto</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
     <t>Prioridad</t>
   </si>
   <si>
-    <t>baja</t>
-  </si>
-  <si>
     <t>CP_login</t>
   </si>
   <si>
-    <t>abierto</t>
-  </si>
-  <si>
     <t>sebastian</t>
   </si>
   <si>
-    <t>aprovado</t>
-  </si>
-  <si>
     <t>CP_lista_campos_registro</t>
   </si>
   <si>
     <t xml:space="preserve">Como se aprecia en la imagen X, la lista no trae informacion y al ser un campo obligatorio no puese realizar la accion </t>
   </si>
   <si>
-    <t>alta</t>
+    <t xml:space="preserve">Estados </t>
+  </si>
+  <si>
+    <t>Prioridades</t>
+  </si>
+  <si>
+    <t>ABIERTO</t>
+  </si>
+  <si>
+    <t>REPORTADO</t>
+  </si>
+  <si>
+    <t>ASIGNADO</t>
+  </si>
+  <si>
+    <t>SOLUCIONADO</t>
+  </si>
+  <si>
+    <t>APROBADO</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>NO REVISADO</t>
   </si>
 </sst>
 </file>
@@ -146,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -325,17 +352,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -366,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -374,12 +390,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -389,20 +420,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -410,12 +429,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -426,12 +445,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -714,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K9"/>
+  <dimension ref="B1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G6" sqref="G6:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -729,153 +742,254 @@
     <col min="11" max="11" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
     <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="J3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="18"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="16"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="2:11" ht="58" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="11" t="s">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="4"/>
+      <c r="G6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="4"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="2:11" ht="47.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="21" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>5</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+    </row>
+    <row r="11" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+    </row>
+    <row r="13" spans="2:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="43">
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C6:D6"/>
@@ -884,11 +998,18 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D4"/>
     <mergeCell ref="E3:F4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="G1:H2"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="G3:H4"/>
     <mergeCell ref="G5:H5"/>
@@ -900,10 +1021,100 @@
     <mergeCell ref="J3:K4"/>
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="J12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C0B6D6ED-5A9C-42FC-98BF-28F9D0510A4B}">
+          <x14:formula1>
+            <xm:f>Hoja2!$C$5:$C$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5:H13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1399FBBA-45CC-4A1A-98DF-ED6AF29031D8}">
+          <x14:formula1>
+            <xm:f>Hoja2!$D$5:$D$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>I5:I13</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3297F676-7A5F-4128-BC6B-5D0CB6987191}">
+  <dimension ref="C4:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>